--- a/doc/Document de présentation/PO2019-YTD-PIGS-Planning_des_disponibilités.xlsx
+++ b/doc/Document de présentation/PO2019-YTD-PIGS-Planning_des_disponibilités.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Heures à disposition</t>
   </si>
@@ -91,13 +91,28 @@
   </si>
   <si>
     <t>Blocs et terrain</t>
+  </si>
+  <si>
+    <t>Problème certificat</t>
+  </si>
+  <si>
+    <t>Création lanceur</t>
+  </si>
+  <si>
+    <t>Lanceur, placement et map</t>
+  </si>
+  <si>
+    <t>Lanceur et map</t>
+  </si>
+  <si>
+    <t>Finalisation prototype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +123,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,8 +464,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,11 +763,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="J2" s="18"/>
       <c r="K2" s="20"/>
     </row>
@@ -1116,8 +1138,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
@@ -1181,10 +1203,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="33">
         <v>3.5</v>
       </c>
     </row>
@@ -1202,9 +1224,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="H24" s="24"/>
       <c r="I24" s="25">
         <v>3.5</v>
       </c>
@@ -1230,10 +1250,10 @@
         <v>12</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I25" s="25">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1250,12 +1270,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="38">
-        <v>3.5</v>
-      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
@@ -1295,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="25">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -1310,16 +1326,18 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>7</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I29" s="25">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -1336,12 +1354,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="38">
-        <v>3.5</v>
-      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
@@ -1357,12 +1371,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="25">
-        <v>3.5</v>
-      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
@@ -1385,10 +1395,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I32" s="25">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1405,12 +1415,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="38">
-        <v>3.5</v>
-      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
@@ -1443,12 +1449,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="25">
-        <v>3.5</v>
-      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
@@ -1464,12 +1466,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="25">
-        <v>3.5</v>
-      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
@@ -1485,12 +1483,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="38">
-        <v>3.5</v>
-      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
@@ -1506,12 +1500,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="25">
-        <v>3.5</v>
-      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -1523,21 +1513,19 @@
       <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="4">
-        <v>4</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4">
         <v>4</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I39" s="25">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
@@ -1554,12 +1542,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="38">
-        <v>3.5</v>
-      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
@@ -1575,8 +1559,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
@@ -1598,8 +1582,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
+      <c r="H42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
@@ -1610,13 +1598,19 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6">
+        <v>7</v>
+      </c>
       <c r="G43" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="25">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
@@ -1632,8 +1626,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
@@ -1700,8 +1694,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="38"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="33"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
@@ -1710,18 +1704,12 @@
       <c r="C49" s="13">
         <v>43629</v>
       </c>
-      <c r="D49" s="6">
-        <v>4</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4</v>
-      </c>
-      <c r="F49" s="19">
-        <v>4</v>
-      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="25"/>
@@ -1757,8 +1745,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
     </row>
     <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
@@ -1784,18 +1772,12 @@
       <c r="C53" s="12">
         <v>43633</v>
       </c>
-      <c r="D53" s="4">
-        <v>4</v>
-      </c>
-      <c r="E53" s="4">
-        <v>4</v>
-      </c>
-      <c r="F53" s="4">
-        <v>4</v>
-      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
@@ -1807,15 +1789,25 @@
       <c r="C54" s="13">
         <v>43634</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="D54" s="6">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4</v>
+      </c>
+      <c r="F54" s="19">
+        <v>4</v>
+      </c>
       <c r="G54" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
@@ -1922,8 +1914,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
+      <c r="H60" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
@@ -1932,15 +1928,25 @@
       <c r="C61" s="13">
         <v>43641</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="D61" s="6">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6">
+        <v>4</v>
+      </c>
+      <c r="F61" s="19">
+        <v>4</v>
+      </c>
       <c r="G61" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
@@ -1966,18 +1972,12 @@
       <c r="C63" s="13">
         <v>43643</v>
       </c>
-      <c r="D63" s="6">
-        <v>4</v>
-      </c>
-      <c r="E63" s="6">
-        <v>4</v>
-      </c>
-      <c r="F63" s="19">
-        <v>4</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
@@ -2040,18 +2040,12 @@
       <c r="C67" s="12">
         <v>43647</v>
       </c>
-      <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4">
-        <v>4</v>
-      </c>
-      <c r="F67" s="4">
-        <v>4</v>
-      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="25"/>
@@ -2159,23 +2153,23 @@
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="31">
         <f>SUM(G4:G73)</f>
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H74" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I74" s="30">
         <f>SUM(I4:I73)</f>
-        <v>123</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
